--- a/fuction_ensemble_1/redes-ensemble-s/mse_sup/1000_model_14_5_24.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/mse_sup/1000_model_14_5_24.xlsx
@@ -480,7 +480,7 @@
         <v>3.299645433692669</v>
       </c>
       <c r="D3" t="n">
-        <v>3.623433589935303</v>
+        <v>3.623433828353882</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         <v>2.987822969882686</v>
       </c>
       <c r="D4" t="n">
-        <v>3.411840200424194</v>
+        <v>3.411840677261353</v>
       </c>
     </row>
     <row r="5">
@@ -564,7 +564,7 @@
         <v>1.607071911269599</v>
       </c>
       <c r="D9" t="n">
-        <v>1.953972101211548</v>
+        <v>1.953971982002258</v>
       </c>
     </row>
     <row r="10">
@@ -592,7 +592,7 @@
         <v>1.404551743365336</v>
       </c>
       <c r="D11" t="n">
-        <v>1.446532845497131</v>
+        <v>1.446532964706421</v>
       </c>
     </row>
     <row r="12">
@@ -606,7 +606,7 @@
         <v>1.375358782320163</v>
       </c>
       <c r="D12" t="n">
-        <v>1.283385515213013</v>
+        <v>1.283385396003723</v>
       </c>
     </row>
     <row r="13">
@@ -634,7 +634,7 @@
         <v>1.430324041922637</v>
       </c>
       <c r="D14" t="n">
-        <v>1.188661932945251</v>
+        <v>1.188662171363831</v>
       </c>
     </row>
     <row r="15">
@@ -648,7 +648,7 @@
         <v>1.502738612878482</v>
       </c>
       <c r="D15" t="n">
-        <v>1.26036262512207</v>
+        <v>1.26036274433136</v>
       </c>
     </row>
     <row r="16">
@@ -662,7 +662,7 @@
         <v>1.598267225469177</v>
       </c>
       <c r="D16" t="n">
-        <v>1.401379108428955</v>
+        <v>1.401379346847534</v>
       </c>
     </row>
     <row r="17">
@@ -704,7 +704,7 @@
         <v>1.981167790343447</v>
       </c>
       <c r="D19" t="n">
-        <v>2.029625654220581</v>
+        <v>2.02962589263916</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         <v>2.276864566877039</v>
       </c>
       <c r="D21" t="n">
-        <v>2.394828081130981</v>
+        <v>2.394827842712402</v>
       </c>
     </row>
     <row r="22">
@@ -774,7 +774,7 @@
         <v>2.688621501601222</v>
       </c>
       <c r="D24" t="n">
-        <v>2.669399499893188</v>
+        <v>2.66939902305603</v>
       </c>
     </row>
     <row r="25">
@@ -816,7 +816,7 @@
         <v>2.926025662149036</v>
       </c>
       <c r="D27" t="n">
-        <v>2.676663398742676</v>
+        <v>2.676662921905518</v>
       </c>
     </row>
     <row r="28">
@@ -886,7 +886,7 @@
         <v>2.733110370446136</v>
       </c>
       <c r="D32" t="n">
-        <v>2.43274974822998</v>
+        <v>2.43274998664856</v>
       </c>
     </row>
     <row r="33">
@@ -970,7 +970,7 @@
         <v>1.965523852991269</v>
       </c>
       <c r="D38" t="n">
-        <v>2.868547201156616</v>
+        <v>2.868546962738037</v>
       </c>
     </row>
     <row r="39">
@@ -1026,7 +1026,7 @@
         <v>1.125183145189406</v>
       </c>
       <c r="D42" t="n">
-        <v>1.656929850578308</v>
+        <v>1.656929969787598</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>1.049859734140504</v>
       </c>
       <c r="D43" t="n">
-        <v>1.42818009853363</v>
+        <v>1.428179979324341</v>
       </c>
     </row>
     <row r="44">
@@ -1068,7 +1068,7 @@
         <v>1.031303082240741</v>
       </c>
       <c r="D45" t="n">
-        <v>1.177441239356995</v>
+        <v>1.177441477775574</v>
       </c>
     </row>
     <row r="46">
@@ -1096,7 +1096,7 @@
         <v>1.148046603653651</v>
       </c>
       <c r="D47" t="n">
-        <v>1.242088913917542</v>
+        <v>1.242089033126831</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>1.243575216244345</v>
       </c>
       <c r="D48" t="n">
-        <v>1.383113741874695</v>
+        <v>1.383113503456116</v>
       </c>
     </row>
     <row r="49">
@@ -1180,7 +1180,7 @@
         <v>1.922172557652208</v>
       </c>
       <c r="D53" t="n">
-        <v>2.375400066375732</v>
+        <v>2.375399589538574</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>2.069016834179187</v>
       </c>
       <c r="D54" t="n">
-        <v>2.504011869430542</v>
+        <v>2.504011631011963</v>
       </c>
     </row>
     <row r="55">
@@ -1222,7 +1222,7 @@
         <v>2.33392949237639</v>
       </c>
       <c r="D56" t="n">
-        <v>2.650325059890747</v>
+        <v>2.650325298309326</v>
       </c>
     </row>
     <row r="57">
@@ -1306,7 +1306,7 @@
         <v>2.525873636959354</v>
       </c>
       <c r="D62" t="n">
-        <v>2.529466390609741</v>
+        <v>2.529466152191162</v>
       </c>
     </row>
     <row r="63">
@@ -1404,7 +1404,7 @@
         <v>2.102593559955162</v>
       </c>
       <c r="D69" t="n">
-        <v>3.132334470748901</v>
+        <v>3.13233470916748</v>
       </c>
     </row>
     <row r="70">
@@ -1432,7 +1432,7 @@
         <v>1.48409882985393</v>
       </c>
       <c r="D71" t="n">
-        <v>2.545994281768799</v>
+        <v>2.54599404335022</v>
       </c>
     </row>
     <row r="72">
@@ -1460,7 +1460,7 @@
         <v>1.06155995609878</v>
       </c>
       <c r="D73" t="n">
-        <v>1.918815970420837</v>
+        <v>1.918815851211548</v>
       </c>
     </row>
     <row r="74">
@@ -1502,7 +1502,7 @@
         <v>0.8298468271493438</v>
       </c>
       <c r="D76" t="n">
-        <v>1.247690558433533</v>
+        <v>1.247690796852112</v>
       </c>
     </row>
     <row r="77">
@@ -1558,7 +1558,7 @@
         <v>1.052755270298357</v>
       </c>
       <c r="D80" t="n">
-        <v>1.36597740650177</v>
+        <v>1.365977048873901</v>
       </c>
     </row>
     <row r="81">
@@ -1586,7 +1586,7 @@
         <v>1.295915803027409</v>
       </c>
       <c r="D82" t="n">
-        <v>1.774893999099731</v>
+        <v>1.774894118309021</v>
       </c>
     </row>
     <row r="83">
@@ -1600,7 +1600,7 @@
         <v>1.435655835172628</v>
       </c>
       <c r="D83" t="n">
-        <v>1.992695927619934</v>
+        <v>1.992695808410645</v>
       </c>
     </row>
     <row r="84">
@@ -1628,7 +1628,7 @@
         <v>1.73135261170622</v>
       </c>
       <c r="D85" t="n">
-        <v>2.357055425643921</v>
+        <v>2.3570556640625</v>
       </c>
     </row>
     <row r="86">
@@ -1642,7 +1642,7 @@
         <v>1.878196888233199</v>
       </c>
       <c r="D86" t="n">
-        <v>2.485694646835327</v>
+        <v>2.485694408416748</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>2.017400379617286</v>
       </c>
       <c r="D87" t="n">
-        <v>2.576483249664307</v>
+        <v>2.576483011245728</v>
       </c>
     </row>
     <row r="88">
@@ -1670,7 +1670,7 @@
         <v>2.143109546430403</v>
       </c>
       <c r="D88" t="n">
-        <v>2.63236141204834</v>
+        <v>2.632361173629761</v>
       </c>
     </row>
     <row r="89">
@@ -1684,7 +1684,7 @@
         <v>2.249250770207017</v>
       </c>
       <c r="D89" t="n">
-        <v>2.658066034317017</v>
+        <v>2.658065795898438</v>
       </c>
     </row>
     <row r="90">
@@ -1698,7 +1698,7 @@
         <v>2.330007278068036</v>
       </c>
       <c r="D90" t="n">
-        <v>2.659009218215942</v>
+        <v>2.659008979797363</v>
       </c>
     </row>
     <row r="91">
@@ -1712,7 +1712,7 @@
         <v>2.380513706978217</v>
       </c>
       <c r="D91" t="n">
-        <v>2.640497446060181</v>
+        <v>2.64049768447876</v>
       </c>
     </row>
     <row r="92">
@@ -1726,7 +1726,7 @@
         <v>2.397733197510575</v>
       </c>
       <c r="D92" t="n">
-        <v>2.607271194458008</v>
+        <v>2.607271432876587</v>
       </c>
     </row>
     <row r="93">
@@ -1768,7 +1768,7 @@
         <v>2.266392604767321</v>
       </c>
       <c r="D95" t="n">
-        <v>2.455190181732178</v>
+        <v>2.455190420150757</v>
       </c>
     </row>
     <row r="96">
@@ -1824,7 +1824,7 @@
         <v>2.691274479657582</v>
       </c>
       <c r="D99" t="n">
-        <v>3.576756954193115</v>
+        <v>3.576757431030273</v>
       </c>
     </row>
     <row r="100">
@@ -1880,7 +1880,7 @@
         <v>1.421239830989663</v>
       </c>
       <c r="D103" t="n">
-        <v>2.531226396560669</v>
+        <v>2.531226634979248</v>
       </c>
     </row>
     <row r="104">
@@ -1894,7 +1894,7 @@
         <v>1.181771245529304</v>
       </c>
       <c r="D104" t="n">
-        <v>2.213220834732056</v>
+        <v>2.213221073150635</v>
       </c>
     </row>
     <row r="105">
@@ -1908,7 +1908,7 @@
         <v>0.9987009572345125</v>
       </c>
       <c r="D105" t="n">
-        <v>1.903653860092163</v>
+        <v>1.903653979301453</v>
       </c>
     </row>
     <row r="106">
@@ -1922,7 +1922,7 @@
         <v>0.8715042003791504</v>
       </c>
       <c r="D106" t="n">
-        <v>1.624473929405212</v>
+        <v>1.624474048614502</v>
       </c>
     </row>
     <row r="107">
@@ -1936,7 +1936,7 @@
         <v>0.7961807893302488</v>
       </c>
       <c r="D107" t="n">
-        <v>1.395588278770447</v>
+        <v>1.395588397979736</v>
       </c>
     </row>
     <row r="108">
@@ -1964,7 +1964,7 @@
         <v>0.7776241374304858</v>
       </c>
       <c r="D109" t="n">
-        <v>1.144860148429871</v>
+        <v>1.14486038684845</v>
       </c>
     </row>
     <row r="110">
@@ -1978,7 +1978,7 @@
         <v>0.8219530878875503</v>
       </c>
       <c r="D110" t="n">
-        <v>1.137873649597168</v>
+        <v>1.137873291969299</v>
       </c>
     </row>
     <row r="111">
@@ -2034,7 +2034,7 @@
         <v>1.233056804163142</v>
       </c>
       <c r="D114" t="n">
-        <v>1.759249210357666</v>
+        <v>1.759248971939087</v>
       </c>
     </row>
     <row r="115">
@@ -2062,7 +2062,7 @@
         <v>1.519378025487666</v>
       </c>
       <c r="D116" t="n">
-        <v>2.174597978591919</v>
+        <v>2.174598217010498</v>
       </c>
     </row>
     <row r="117">
@@ -2076,7 +2076,7 @@
         <v>1.668493612841953</v>
       </c>
       <c r="D117" t="n">
-        <v>2.34061336517334</v>
+        <v>2.340613603591919</v>
       </c>
     </row>
     <row r="118">
@@ -2090,7 +2090,7 @@
         <v>1.815337889368931</v>
       </c>
       <c r="D118" t="n">
-        <v>2.469284296035767</v>
+        <v>2.469284057617188</v>
       </c>
     </row>
     <row r="119">
@@ -2104,7 +2104,7 @@
         <v>1.954541380753018</v>
       </c>
       <c r="D119" t="n">
-        <v>2.560229778289795</v>
+        <v>2.560230016708374</v>
       </c>
     </row>
     <row r="120">
@@ -2146,7 +2146,7 @@
         <v>2.267148279203769</v>
       </c>
       <c r="D122" t="n">
-        <v>2.643351078033447</v>
+        <v>2.643350601196289</v>
       </c>
     </row>
     <row r="123">
@@ -2174,7 +2174,7 @@
         <v>2.334874198646308</v>
       </c>
       <c r="D124" t="n">
-        <v>2.591732025146484</v>
+        <v>2.591731548309326</v>
       </c>
     </row>
     <row r="125">
@@ -2188,7 +2188,7 @@
         <v>2.318567200448175</v>
       </c>
       <c r="D125" t="n">
-        <v>2.54770827293396</v>
+        <v>2.547708511352539</v>
       </c>
     </row>
     <row r="126">
@@ -2230,7 +2230,7 @@
         <v>2.124739416411049</v>
       </c>
       <c r="D128" t="n">
-        <v>2.379285335540771</v>
+        <v>2.37928581237793</v>
       </c>
     </row>
     <row r="129">
@@ -2244,7 +2244,7 @@
         <v>2.051597314453902</v>
       </c>
       <c r="D129" t="n">
-        <v>2.317472219467163</v>
+        <v>2.317472457885742</v>
       </c>
     </row>
     <row r="130">
@@ -2314,7 +2314,7 @@
         <v>1.746307153237991</v>
       </c>
       <c r="D134" t="n">
-        <v>2.826111316680908</v>
+        <v>2.826111555099487</v>
       </c>
     </row>
     <row r="135">
@@ -2328,7 +2328,7 @@
         <v>1.45570207604664</v>
       </c>
       <c r="D135" t="n">
-        <v>2.519433736801147</v>
+        <v>2.519433498382568</v>
       </c>
     </row>
     <row r="136">
@@ -2342,7 +2342,7 @@
         <v>1.216233490586281</v>
       </c>
       <c r="D136" t="n">
-        <v>2.201216697692871</v>
+        <v>2.20121693611145</v>
       </c>
     </row>
     <row r="137">
@@ -2370,7 +2370,7 @@
         <v>0.9059664454361276</v>
       </c>
       <c r="D138" t="n">
-        <v>1.61221981048584</v>
+        <v>1.612220048904419</v>
       </c>
     </row>
     <row r="139">
@@ -2412,7 +2412,7 @@
         <v>0.8120863824874631</v>
       </c>
       <c r="D141" t="n">
-        <v>1.132610440254211</v>
+        <v>1.132610678672791</v>
       </c>
     </row>
     <row r="142">
@@ -2440,7 +2440,7 @@
         <v>0.9288299039003727</v>
       </c>
       <c r="D143" t="n">
-        <v>1.197678208351135</v>
+        <v>1.197677969932556</v>
       </c>
     </row>
     <row r="144">
@@ -2454,7 +2454,7 @@
         <v>1.024358516491067</v>
       </c>
       <c r="D144" t="n">
-        <v>1.338671565055847</v>
+        <v>1.338671684265137</v>
       </c>
     </row>
     <row r="145">
@@ -2482,7 +2482,7 @@
         <v>1.267519049220119</v>
       </c>
       <c r="D146" t="n">
-        <v>1.746613383293152</v>
+        <v>1.746613264083862</v>
       </c>
     </row>
     <row r="147">
@@ -2510,7 +2510,7 @@
         <v>1.553840270544643</v>
       </c>
       <c r="D148" t="n">
-        <v>2.161276340484619</v>
+        <v>2.161276578903198</v>
       </c>
     </row>
     <row r="149">
@@ -2524,7 +2524,7 @@
         <v>1.70295585789893</v>
       </c>
       <c r="D149" t="n">
-        <v>2.327150821685791</v>
+        <v>2.32715106010437</v>
       </c>
     </row>
     <row r="150">
@@ -2608,7 +2608,7 @@
         <v>2.352116953170927</v>
       </c>
       <c r="D155" t="n">
-        <v>2.612390279769897</v>
+        <v>2.612390756607056</v>
       </c>
     </row>
     <row r="156">
@@ -2622,7 +2622,7 @@
         <v>2.369336443703285</v>
       </c>
       <c r="D156" t="n">
-        <v>2.579208135604858</v>
+        <v>2.579207897186279</v>
       </c>
     </row>
     <row r="157">
@@ -2636,7 +2636,7 @@
         <v>2.353029445505153</v>
       </c>
       <c r="D157" t="n">
-        <v>2.535131216049194</v>
+        <v>2.535131454467773</v>
       </c>
     </row>
     <row r="158">
@@ -2650,7 +2650,7 @@
         <v>2.306656937206077</v>
       </c>
       <c r="D158" t="n">
-        <v>2.483364105224609</v>
+        <v>2.48336386680603</v>
       </c>
     </row>
     <row r="159">
@@ -2706,7 +2706,7 @@
         <v>3.060649487226699</v>
       </c>
       <c r="D162" t="n">
-        <v>3.738636493682861</v>
+        <v>3.73863673210144</v>
       </c>
     </row>
     <row r="163">
@@ -2734,7 +2734,7 @@
         <v>2.52027327898856</v>
       </c>
       <c r="D164" t="n">
-        <v>3.347007036209106</v>
+        <v>3.347006559371948</v>
       </c>
     </row>
     <row r="165">
@@ -2762,7 +2762,7 @@
         <v>1.852666171321974</v>
       </c>
       <c r="D166" t="n">
-        <v>2.818989753723145</v>
+        <v>2.818989992141724</v>
       </c>
     </row>
     <row r="167">
@@ -2846,7 +2846,7 @@
         <v>0.9078090914260366</v>
       </c>
       <c r="D172" t="n">
-        <v>1.212247371673584</v>
+        <v>1.212247252464294</v>
       </c>
     </row>
     <row r="173">
@@ -2874,7 +2874,7 @@
         <v>0.9627743510285103</v>
       </c>
       <c r="D174" t="n">
-        <v>1.118024706840515</v>
+        <v>1.118024945259094</v>
       </c>
     </row>
     <row r="175">
@@ -2888,7 +2888,7 @@
         <v>1.035188921984356</v>
       </c>
       <c r="D175" t="n">
-        <v>1.190061926841736</v>
+        <v>1.190061688423157</v>
       </c>
     </row>
     <row r="176">
@@ -2902,7 +2902,7 @@
         <v>1.13071753457505</v>
       </c>
       <c r="D176" t="n">
-        <v>1.331017374992371</v>
+        <v>1.33101749420166</v>
       </c>
     </row>
     <row r="177">
@@ -2916,7 +2916,7 @@
         <v>1.244954023830588</v>
       </c>
       <c r="D177" t="n">
-        <v>1.522073030471802</v>
+        <v>1.522073149681091</v>
       </c>
     </row>
     <row r="178">
@@ -2930,7 +2930,7 @@
         <v>1.373878067304102</v>
       </c>
       <c r="D178" t="n">
-        <v>1.738408088684082</v>
+        <v>1.738407969474792</v>
       </c>
     </row>
     <row r="179">
@@ -2944,7 +2944,7 @@
         <v>1.513618099449321</v>
       </c>
       <c r="D179" t="n">
-        <v>1.955062031745911</v>
+        <v>1.9550621509552</v>
       </c>
     </row>
     <row r="180">
@@ -3000,7 +3000,7 @@
         <v>2.095362643893979</v>
       </c>
       <c r="D183" t="n">
-        <v>2.538084983825684</v>
+        <v>2.538085222244263</v>
       </c>
     </row>
     <row r="184">
@@ -3014,7 +3014,7 @@
         <v>2.221071810707095</v>
       </c>
       <c r="D184" t="n">
-        <v>2.594627857208252</v>
+        <v>2.594627618789673</v>
       </c>
     </row>
     <row r="185">
@@ -3056,7 +3056,7 @@
         <v>2.458475971254909</v>
       </c>
       <c r="D187" t="n">
-        <v>2.604247570037842</v>
+        <v>2.604247808456421</v>
       </c>
     </row>
     <row r="188">
@@ -3070,7 +3070,7 @@
         <v>2.475695461787268</v>
       </c>
       <c r="D188" t="n">
-        <v>2.571089744567871</v>
+        <v>2.571089506149292</v>
       </c>
     </row>
     <row r="189">
@@ -3084,7 +3084,7 @@
         <v>2.459388463589136</v>
       </c>
       <c r="D189" t="n">
-        <v>2.526958465576172</v>
+        <v>2.526958227157593</v>
       </c>
     </row>
     <row r="190">
@@ -3112,7 +3112,7 @@
         <v>2.344354869044014</v>
       </c>
       <c r="D191" t="n">
-        <v>2.417922258377075</v>
+        <v>2.417922019958496</v>
       </c>
     </row>
     <row r="192">
@@ -3252,7 +3252,7 @@
         <v>1.296542134940076</v>
       </c>
       <c r="D201" t="n">
-        <v>1.88241720199585</v>
+        <v>1.882417321205139</v>
       </c>
     </row>
     <row r="202">
@@ -3266,7 +3266,7 @@
         <v>1.169345378084714</v>
       </c>
       <c r="D202" t="n">
-        <v>1.602985382080078</v>
+        <v>1.602985262870789</v>
       </c>
     </row>
     <row r="203">
@@ -3294,7 +3294,7 @@
         <v>1.06482900599064</v>
       </c>
       <c r="D204" t="n">
-        <v>1.210800647735596</v>
+        <v>1.210800886154175</v>
       </c>
     </row>
     <row r="205">
@@ -3308,7 +3308,7 @@
         <v>1.075465315136049</v>
       </c>
       <c r="D205" t="n">
-        <v>1.123465776443481</v>
+        <v>1.123465538024902</v>
       </c>
     </row>
     <row r="206">
@@ -3322,7 +3322,7 @@
         <v>1.119794265593114</v>
       </c>
       <c r="D206" t="n">
-        <v>1.116709351539612</v>
+        <v>1.116709589958191</v>
       </c>
     </row>
     <row r="207">
@@ -3336,7 +3336,7 @@
         <v>1.192208836548958</v>
       </c>
       <c r="D207" t="n">
-        <v>1.188795566558838</v>
+        <v>1.188795685768127</v>
       </c>
     </row>
     <row r="208">
@@ -3350,7 +3350,7 @@
         <v>1.287737449139653</v>
       </c>
       <c r="D208" t="n">
-        <v>1.329694986343384</v>
+        <v>1.329694747924805</v>
       </c>
     </row>
     <row r="209">
@@ -3364,7 +3364,7 @@
         <v>1.401973938395191</v>
       </c>
       <c r="D209" t="n">
-        <v>1.520524382591248</v>
+        <v>1.520524501800537</v>
       </c>
     </row>
     <row r="210">
@@ -3392,7 +3392,7 @@
         <v>1.670638014013924</v>
       </c>
       <c r="D211" t="n">
-        <v>1.952709674835205</v>
+        <v>1.952709913253784</v>
       </c>
     </row>
     <row r="212">
@@ -3406,7 +3406,7 @@
         <v>1.817219203193229</v>
       </c>
       <c r="D212" t="n">
-        <v>2.14966344833374</v>
+        <v>2.149663686752319</v>
       </c>
     </row>
     <row r="213">
@@ -3448,7 +3448,7 @@
         <v>2.252382558458582</v>
       </c>
       <c r="D215" t="n">
-        <v>2.53542685508728</v>
+        <v>2.535426616668701</v>
       </c>
     </row>
     <row r="216">
@@ -3476,7 +3476,7 @@
         <v>2.484232949048313</v>
       </c>
       <c r="D217" t="n">
-        <v>2.618782043457031</v>
+        <v>2.618782520294189</v>
       </c>
     </row>
     <row r="218">
@@ -3518,7 +3518,7 @@
         <v>2.632715376351871</v>
       </c>
       <c r="D220" t="n">
-        <v>2.569185972213745</v>
+        <v>2.569186210632324</v>
       </c>
     </row>
     <row r="221">
@@ -3532,7 +3532,7 @@
         <v>2.616408378153739</v>
       </c>
       <c r="D221" t="n">
-        <v>2.524994373321533</v>
+        <v>2.524994850158691</v>
       </c>
     </row>
     <row r="222">
@@ -3574,7 +3574,7 @@
         <v>2.422580594116612</v>
       </c>
       <c r="D224" t="n">
-        <v>2.354917049407959</v>
+        <v>2.35491681098938</v>
       </c>
     </row>
     <row r="225">
@@ -3588,7 +3588,7 @@
         <v>2.349438492159465</v>
       </c>
       <c r="D225" t="n">
-        <v>2.292285203933716</v>
+        <v>2.292285442352295</v>
       </c>
     </row>
     <row r="226">
@@ -3658,7 +3658,7 @@
         <v>2.198887492078642</v>
       </c>
       <c r="D230" t="n">
-        <v>2.82615327835083</v>
+        <v>2.826153516769409</v>
       </c>
     </row>
     <row r="231">
@@ -3756,7 +3756,7 @@
         <v>1.264666721328114</v>
       </c>
       <c r="D237" t="n">
-        <v>1.130818247795105</v>
+        <v>1.130818009376526</v>
       </c>
     </row>
     <row r="238">
@@ -3840,7 +3840,7 @@
         <v>1.859839420205989</v>
       </c>
       <c r="D243" t="n">
-        <v>1.958965659141541</v>
+        <v>1.958965539932251</v>
       </c>
     </row>
     <row r="244">
@@ -3854,7 +3854,7 @@
         <v>2.006420609385295</v>
       </c>
       <c r="D244" t="n">
-        <v>2.155561685562134</v>
+        <v>2.155561923980713</v>
       </c>
     </row>
     <row r="245">
@@ -3868,7 +3868,7 @@
         <v>2.155536196739581</v>
       </c>
       <c r="D245" t="n">
-        <v>2.320953845977783</v>
+        <v>2.320954084396362</v>
       </c>
     </row>
     <row r="246">
@@ -3882,7 +3882,7 @@
         <v>2.30238047326656</v>
       </c>
       <c r="D246" t="n">
-        <v>2.449732065200806</v>
+        <v>2.449732303619385</v>
       </c>
     </row>
     <row r="247">
@@ -3896,7 +3896,7 @@
         <v>2.441583964650647</v>
       </c>
       <c r="D247" t="n">
-        <v>2.541321039199829</v>
+        <v>2.54132080078125</v>
       </c>
     </row>
     <row r="248">
@@ -3938,7 +3938,7 @@
         <v>2.754190863101398</v>
       </c>
       <c r="D250" t="n">
-        <v>2.626933813095093</v>
+        <v>2.626934051513672</v>
       </c>
     </row>
     <row r="251">
@@ -3966,7 +3966,7 @@
         <v>2.821916782543936</v>
       </c>
       <c r="D252" t="n">
-        <v>2.575810194015503</v>
+        <v>2.575810432434082</v>
       </c>
     </row>
     <row r="253">
@@ -3980,7 +3980,7 @@
         <v>2.805609784345804</v>
       </c>
       <c r="D253" t="n">
-        <v>2.531549215316772</v>
+        <v>2.531549692153931</v>
       </c>
     </row>
     <row r="254">
@@ -3994,7 +3994,7 @@
         <v>2.759237276046727</v>
       </c>
       <c r="D254" t="n">
-        <v>2.479377269744873</v>
+        <v>2.479377746582031</v>
       </c>
     </row>
     <row r="255">
@@ -4008,7 +4008,7 @@
         <v>2.690576189800682</v>
       </c>
       <c r="D255" t="n">
-        <v>2.421832084655762</v>
+        <v>2.42183256149292</v>
       </c>
     </row>
     <row r="256">
@@ -4022,7 +4022,7 @@
         <v>2.611782000308677</v>
       </c>
       <c r="D256" t="n">
-        <v>2.360858917236328</v>
+        <v>2.360859155654907</v>
       </c>
     </row>
     <row r="257">
@@ -4106,7 +4106,7 @@
         <v>2.403094654123874</v>
       </c>
       <c r="D262" t="n">
-        <v>2.845782279968262</v>
+        <v>2.845782518386841</v>
       </c>
     </row>
     <row r="263">
@@ -4148,7 +4148,7 @@
         <v>1.689950703177373</v>
       </c>
       <c r="D265" t="n">
-        <v>1.908805966377258</v>
+        <v>1.908806204795837</v>
       </c>
     </row>
     <row r="266">
@@ -4204,7 +4204,7 @@
         <v>1.468873883373346</v>
       </c>
       <c r="D269" t="n">
-        <v>1.149809956550598</v>
+        <v>1.149810194969177</v>
       </c>
     </row>
     <row r="270">
@@ -4218,7 +4218,7 @@
         <v>1.513202833830411</v>
       </c>
       <c r="D270" t="n">
-        <v>1.143181800842285</v>
+        <v>1.143181681632996</v>
       </c>
     </row>
     <row r="271">
@@ -4232,7 +4232,7 @@
         <v>1.585617404786256</v>
       </c>
       <c r="D271" t="n">
-        <v>1.21531617641449</v>
+        <v>1.215316414833069</v>
       </c>
     </row>
     <row r="272">
@@ -4274,7 +4274,7 @@
         <v>1.924306550106002</v>
       </c>
       <c r="D274" t="n">
-        <v>1.761410355567932</v>
+        <v>1.761409997940063</v>
       </c>
     </row>
     <row r="275">
@@ -4330,7 +4330,7 @@
         <v>2.506587635311792</v>
       </c>
       <c r="D278" t="n">
-        <v>2.466887712478638</v>
+        <v>2.466887950897217</v>
       </c>
     </row>
     <row r="279">
@@ -4358,7 +4358,7 @@
         <v>2.771500293508996</v>
       </c>
       <c r="D280" t="n">
-        <v>2.615823745727539</v>
+        <v>2.61582350730896</v>
       </c>
     </row>
     <row r="281">
@@ -4400,7 +4400,7 @@
         <v>3.00890445405681</v>
       </c>
       <c r="D283" t="n">
-        <v>2.626911878585815</v>
+        <v>2.626912117004395</v>
       </c>
     </row>
     <row r="284">
@@ -4414,7 +4414,7 @@
         <v>3.026123944589168</v>
       </c>
       <c r="D284" t="n">
-        <v>2.593791246414185</v>
+        <v>2.593791484832764</v>
       </c>
     </row>
     <row r="285">
@@ -4428,7 +4428,7 @@
         <v>3.009816946391036</v>
       </c>
       <c r="D285" t="n">
-        <v>2.549446821212769</v>
+        <v>2.549446582794189</v>
       </c>
     </row>
     <row r="286">
@@ -4456,7 +4456,7 @@
         <v>2.894783351845915</v>
       </c>
       <c r="D287" t="n">
-        <v>2.439343452453613</v>
+        <v>2.439343214035034</v>
       </c>
     </row>
     <row r="288">
@@ -4470,7 +4470,7 @@
         <v>2.81598916235391</v>
       </c>
       <c r="D288" t="n">
-        <v>2.378091096878052</v>
+        <v>2.378090620040894</v>
       </c>
     </row>
     <row r="289">
@@ -4540,7 +4540,7 @@
         <v>2.933126623944096</v>
       </c>
       <c r="D293" t="n">
-        <v>3.162116050720215</v>
+        <v>3.162115812301636</v>
       </c>
     </row>
     <row r="294">
@@ -4610,7 +4610,7 @@
         <v>1.764896263232352</v>
       </c>
       <c r="D298" t="n">
-        <v>1.663007616996765</v>
+        <v>1.663007736206055</v>
       </c>
     </row>
     <row r="299">
@@ -4624,7 +4624,7 @@
         <v>1.689572852183451</v>
       </c>
       <c r="D299" t="n">
-        <v>1.433962345123291</v>
+        <v>1.43396258354187</v>
       </c>
     </row>
     <row r="300">
@@ -4694,7 +4694,7 @@
         <v>1.883288334287292</v>
       </c>
       <c r="D304" t="n">
-        <v>1.389740228652954</v>
+        <v>1.389740347862244</v>
       </c>
     </row>
     <row r="305">
@@ -4722,7 +4722,7 @@
         <v>2.126448867016344</v>
       </c>
       <c r="D306" t="n">
-        <v>1.794313073158264</v>
+        <v>1.794313192367554</v>
       </c>
     </row>
     <row r="307">
@@ -4750,7 +4750,7 @@
         <v>2.412770088340868</v>
       </c>
       <c r="D308" t="n">
-        <v>2.204878568649292</v>
+        <v>2.204878807067871</v>
       </c>
     </row>
     <row r="309">
@@ -4764,7 +4764,7 @@
         <v>2.561885675695154</v>
       </c>
       <c r="D309" t="n">
-        <v>2.369856834411621</v>
+        <v>2.3698570728302</v>
       </c>
     </row>
     <row r="310">
@@ -4778,7 +4778,7 @@
         <v>2.708729952222133</v>
       </c>
       <c r="D310" t="n">
-        <v>2.498618841171265</v>
+        <v>2.498619079589844</v>
       </c>
     </row>
     <row r="311">
@@ -4806,7 +4806,7 @@
         <v>2.973642610419337</v>
       </c>
       <c r="D312" t="n">
-        <v>2.647886276245117</v>
+        <v>2.647886037826538</v>
       </c>
     </row>
     <row r="313">
@@ -4820,7 +4820,7 @@
         <v>3.079783834195951</v>
       </c>
       <c r="D313" t="n">
-        <v>2.675110101699829</v>
+        <v>2.675110578536987</v>
       </c>
     </row>
     <row r="314">
@@ -4904,7 +4904,7 @@
         <v>3.096925668756256</v>
       </c>
       <c r="D319" t="n">
-        <v>2.471295833587646</v>
+        <v>2.471296072006226</v>
       </c>
     </row>
     <row r="320">
@@ -4918,7 +4918,7 @@
         <v>3.018131479264251</v>
       </c>
       <c r="D320" t="n">
-        <v>2.409741640090942</v>
+        <v>2.409741401672363</v>
       </c>
     </row>
     <row r="321">
@@ -4960,7 +4960,7 @@
         <v>3.767053474776978</v>
       </c>
       <c r="D323" t="n">
-        <v>3.675508260726929</v>
+        <v>3.675508737564087</v>
       </c>
     </row>
     <row r="324">
@@ -5016,7 +5016,7 @@
         <v>2.497018826109059</v>
       </c>
       <c r="D327" t="n">
-        <v>2.624162912368774</v>
+        <v>2.624163150787354</v>
       </c>
     </row>
     <row r="328">
@@ -5058,7 +5058,7 @@
         <v>1.947283195498546</v>
       </c>
       <c r="D330" t="n">
-        <v>1.714330911636353</v>
+        <v>1.714330673217773</v>
       </c>
     </row>
     <row r="331">
@@ -5156,7 +5156,7 @@
         <v>2.179911755809024</v>
       </c>
       <c r="D337" t="n">
-        <v>1.630532026290894</v>
+        <v>1.630531668663025</v>
       </c>
     </row>
     <row r="338">
@@ -5170,7 +5170,7 @@
         <v>2.308835799282538</v>
       </c>
       <c r="D338" t="n">
-        <v>1.844627857208252</v>
+        <v>1.844627618789673</v>
       </c>
     </row>
     <row r="339">
@@ -5226,7 +5226,7 @@
         <v>2.891116884488327</v>
       </c>
       <c r="D342" t="n">
-        <v>2.547667264938354</v>
+        <v>2.547667026519775</v>
       </c>
     </row>
     <row r="343">
@@ -5268,7 +5268,7 @@
         <v>3.262170766462146</v>
       </c>
       <c r="D345" t="n">
-        <v>2.724662780761719</v>
+        <v>2.72466254234314</v>
       </c>
     </row>
     <row r="346">
@@ -5296,7 +5296,7 @@
         <v>3.393433703233345</v>
       </c>
       <c r="D347" t="n">
-        <v>2.709166049957275</v>
+        <v>2.709166288375854</v>
       </c>
     </row>
     <row r="348">
@@ -5310,7 +5310,7 @@
         <v>3.410653193765704</v>
       </c>
       <c r="D348" t="n">
-        <v>2.676007509231567</v>
+        <v>2.676007032394409</v>
       </c>
     </row>
     <row r="349">
@@ -5324,7 +5324,7 @@
         <v>3.394346195567572</v>
       </c>
       <c r="D349" t="n">
-        <v>2.631447076797485</v>
+        <v>2.631447315216064</v>
       </c>
     </row>
     <row r="350">
@@ -5338,7 +5338,7 @@
         <v>3.347973687268495</v>
       </c>
       <c r="D350" t="n">
-        <v>2.578739643096924</v>
+        <v>2.578739404678345</v>
       </c>
     </row>
     <row r="351">
@@ -5352,7 +5352,7 @@
         <v>3.27931260102245</v>
       </c>
       <c r="D351" t="n">
-        <v>2.520454883575439</v>
+        <v>2.520455121994019</v>
       </c>
     </row>
     <row r="352">
@@ -5366,7 +5366,7 @@
         <v>3.200518411530445</v>
       </c>
       <c r="D352" t="n">
-        <v>2.458577632904053</v>
+        <v>2.458577394485474</v>
       </c>
     </row>
     <row r="353">
@@ -5380,7 +5380,7 @@
         <v>3.127376309573298</v>
       </c>
       <c r="D353" t="n">
-        <v>2.394615888595581</v>
+        <v>2.39461612701416</v>
       </c>
     </row>
     <row r="354">
@@ -5394,7 +5394,7 @@
         <v>4.139868088781944</v>
       </c>
       <c r="D354" t="n">
-        <v>3.926321029663086</v>
+        <v>3.926321268081665</v>
       </c>
     </row>
     <row r="355">
@@ -5408,7 +5408,7 @@
         <v>3.911314344353789</v>
       </c>
       <c r="D355" t="n">
-        <v>3.746316432952881</v>
+        <v>3.746315956115723</v>
       </c>
     </row>
     <row r="356">
@@ -5464,7 +5464,7 @@
         <v>2.641279695685869</v>
       </c>
       <c r="D359" t="n">
-        <v>2.693986177444458</v>
+        <v>2.693985939025879</v>
       </c>
     </row>
     <row r="360">
@@ -5520,7 +5520,7 @@
         <v>2.016220654026455</v>
       </c>
       <c r="D363" t="n">
-        <v>1.554636001586914</v>
+        <v>1.554635763168335</v>
       </c>
     </row>
     <row r="364">
@@ -5604,7 +5604,7 @@
         <v>2.324172625385834</v>
       </c>
       <c r="D369" t="n">
-        <v>1.699442505836487</v>
+        <v>1.699442744255066</v>
       </c>
     </row>
     <row r="370">
@@ -5632,7 +5632,7 @@
         <v>2.592836701004567</v>
       </c>
       <c r="D371" t="n">
-        <v>2.126641511917114</v>
+        <v>2.126641273498535</v>
       </c>
     </row>
     <row r="372">
@@ -5674,7 +5674,7 @@
         <v>3.035377754065137</v>
       </c>
       <c r="D374" t="n">
-        <v>2.61473274230957</v>
+        <v>2.614732980728149</v>
       </c>
     </row>
     <row r="375">
@@ -5688,7 +5688,7 @@
         <v>3.174581245449224</v>
       </c>
       <c r="D375" t="n">
-        <v>2.706836223602295</v>
+        <v>2.706835985183716</v>
       </c>
     </row>
     <row r="376">
@@ -5744,7 +5744,7 @@
         <v>3.537694572810155</v>
       </c>
       <c r="D379" t="n">
-        <v>2.776964664459229</v>
+        <v>2.776964902877808</v>
       </c>
     </row>
     <row r="380">
@@ -5786,7 +5786,7 @@
         <v>3.492234556845305</v>
       </c>
       <c r="D382" t="n">
-        <v>2.646197319030762</v>
+        <v>2.646197557449341</v>
       </c>
     </row>
     <row r="383">
@@ -5814,7 +5814,7 @@
         <v>3.344779281107255</v>
       </c>
       <c r="D384" t="n">
-        <v>2.525431632995605</v>
+        <v>2.525431394577026</v>
       </c>
     </row>
     <row r="385">
@@ -5856,7 +5856,7 @@
         <v>3.999163261827086</v>
       </c>
       <c r="D387" t="n">
-        <v>3.830395698547363</v>
+        <v>3.830395221710205</v>
       </c>
     </row>
     <row r="388">
@@ -5912,7 +5912,7 @@
         <v>2.729128613159167</v>
       </c>
       <c r="D391" t="n">
-        <v>2.777214765548706</v>
+        <v>2.777215003967285</v>
       </c>
     </row>
     <row r="392">
@@ -5954,7 +5954,7 @@
         <v>2.179392982548654</v>
       </c>
       <c r="D394" t="n">
-        <v>1.866644501686096</v>
+        <v>1.866644620895386</v>
       </c>
     </row>
     <row r="395">
@@ -5982,7 +5982,7 @@
         <v>2.07487661045458</v>
       </c>
       <c r="D396" t="n">
-        <v>1.474554181098938</v>
+        <v>1.474554419517517</v>
       </c>
     </row>
     <row r="397">
@@ -5996,7 +5996,7 @@
         <v>2.08551291959999</v>
       </c>
       <c r="D397" t="n">
-        <v>1.387538909912109</v>
+        <v>1.387539029121399</v>
       </c>
     </row>
     <row r="398">
@@ -6010,7 +6010,7 @@
         <v>2.129841870057054</v>
       </c>
       <c r="D398" t="n">
-        <v>1.381108045578003</v>
+        <v>1.381108164787292</v>
       </c>
     </row>
     <row r="399">
@@ -6024,7 +6024,7 @@
         <v>2.202256441012899</v>
       </c>
       <c r="D399" t="n">
-        <v>1.453187942504883</v>
+        <v>1.453188061714172</v>
       </c>
     </row>
     <row r="400">
@@ -6052,7 +6052,7 @@
         <v>2.412021542859132</v>
       </c>
       <c r="D401" t="n">
-        <v>1.782123208045959</v>
+        <v>1.78212308883667</v>
       </c>
     </row>
     <row r="402">
@@ -6080,7 +6080,7 @@
         <v>2.680685618477865</v>
       </c>
       <c r="D403" t="n">
-        <v>2.208235025405884</v>
+        <v>2.208234548568726</v>
       </c>
     </row>
     <row r="404">
@@ -6094,7 +6094,7 @@
         <v>2.82726680765717</v>
       </c>
       <c r="D404" t="n">
-        <v>2.402701616287231</v>
+        <v>2.402701377868652</v>
       </c>
     </row>
     <row r="405">
@@ -6178,7 +6178,7 @@
         <v>3.575037061373274</v>
       </c>
       <c r="D410" t="n">
-        <v>2.876401901245117</v>
+        <v>2.876402139663696</v>
       </c>
     </row>
     <row r="411">
@@ -6192,7 +6192,7 @@
         <v>3.625543490283453</v>
       </c>
       <c r="D411" t="n">
-        <v>2.858799695968628</v>
+        <v>2.85879921913147</v>
       </c>
     </row>
     <row r="412">
@@ -6220,7 +6220,7 @@
         <v>3.62645598261768</v>
       </c>
       <c r="D413" t="n">
-        <v>2.780858993530273</v>
+        <v>2.780858755111694</v>
       </c>
     </row>
     <row r="414">
@@ -6234,7 +6234,7 @@
         <v>3.580083474318603</v>
       </c>
       <c r="D414" t="n">
-        <v>2.727776050567627</v>
+        <v>2.727776288986206</v>
       </c>
     </row>
     <row r="415">
@@ -6248,7 +6248,7 @@
         <v>3.511422388072559</v>
       </c>
       <c r="D415" t="n">
-        <v>2.668969869613647</v>
+        <v>2.668969631195068</v>
       </c>
     </row>
     <row r="416">
@@ -6332,7 +6332,7 @@
         <v>3.362541805222826</v>
       </c>
       <c r="D421" t="n">
-        <v>3.452142238616943</v>
+        <v>3.452142000198364</v>
       </c>
     </row>
     <row r="422">
@@ -6416,7 +6416,7 @@
         <v>2.118988033462181</v>
       </c>
       <c r="D427" t="n">
-        <v>1.720982551574707</v>
+        <v>1.720982432365417</v>
       </c>
     </row>
     <row r="428">
@@ -6444,7 +6444,7 @@
         <v>2.100431381562418</v>
       </c>
       <c r="D429" t="n">
-        <v>1.471272468566895</v>
+        <v>1.471272706985474</v>
       </c>
     </row>
     <row r="430">
@@ -6458,7 +6458,7 @@
         <v>2.144760332019482</v>
       </c>
       <c r="D430" t="n">
-        <v>1.465004086494446</v>
+        <v>1.465004324913025</v>
       </c>
     </row>
     <row r="431">
@@ -6500,7 +6500,7 @@
         <v>2.42694000482156</v>
       </c>
       <c r="D433" t="n">
-        <v>1.865708827972412</v>
+        <v>1.865708947181702</v>
       </c>
     </row>
     <row r="434">
@@ -6514,7 +6514,7 @@
         <v>2.555864048295074</v>
       </c>
       <c r="D434" t="n">
-        <v>2.078266382217407</v>
+        <v>2.078266143798828</v>
       </c>
     </row>
     <row r="435">
@@ -6528,7 +6528,7 @@
         <v>2.695604080440293</v>
       </c>
       <c r="D435" t="n">
-        <v>2.290853500366211</v>
+        <v>2.290853261947632</v>
       </c>
     </row>
     <row r="436">
@@ -6556,7 +6556,7 @@
         <v>2.991300856973884</v>
       </c>
       <c r="D437" t="n">
-        <v>2.649069309234619</v>
+        <v>2.649069547653198</v>
       </c>
     </row>
     <row r="438">
@@ -6570,7 +6570,7 @@
         <v>3.138145133500863</v>
       </c>
       <c r="D438" t="n">
-        <v>2.77783203125</v>
+        <v>2.777831792831421</v>
       </c>
     </row>
     <row r="439">
@@ -6626,7 +6626,7 @@
         <v>3.589955523335702</v>
       </c>
       <c r="D442" t="n">
-        <v>2.959697723388672</v>
+        <v>2.959697961807251</v>
       </c>
     </row>
     <row r="443">
@@ -6640,7 +6640,7 @@
         <v>3.640461952245881</v>
       </c>
       <c r="D443" t="n">
-        <v>2.942276239395142</v>
+        <v>2.942276000976562</v>
       </c>
     </row>
     <row r="444">
@@ -6766,7 +6766,7 @@
         <v>3.632054869131318</v>
       </c>
       <c r="D452" t="n">
-        <v>3.759682655334473</v>
+        <v>3.759682178497314</v>
       </c>
     </row>
     <row r="453">
@@ -6864,7 +6864,7 @@
         <v>2.048783642613968</v>
       </c>
       <c r="D459" t="n">
-        <v>1.780299186706543</v>
+        <v>1.780299305915833</v>
       </c>
     </row>
     <row r="460">
@@ -6878,7 +6878,7 @@
         <v>2.019590681568795</v>
       </c>
       <c r="D460" t="n">
-        <v>1.617731928825378</v>
+        <v>1.617731809616089</v>
       </c>
     </row>
     <row r="461">
@@ -6892,7 +6892,7 @@
         <v>2.030226990714204</v>
       </c>
       <c r="D461" t="n">
-        <v>1.531219005584717</v>
+        <v>1.531218886375427</v>
       </c>
     </row>
     <row r="462">
@@ -6934,7 +6934,7 @@
         <v>2.242499124717808</v>
       </c>
       <c r="D464" t="n">
-        <v>1.737637758255005</v>
+        <v>1.737637996673584</v>
       </c>
     </row>
     <row r="465">
@@ -6948,7 +6948,7 @@
         <v>2.356735613973346</v>
       </c>
       <c r="D465" t="n">
-        <v>1.926003098487854</v>
+        <v>1.926003217697144</v>
       </c>
     </row>
     <row r="466">
@@ -7004,7 +7004,7 @@
         <v>2.921096466125671</v>
       </c>
       <c r="D469" t="n">
-        <v>2.708333253860474</v>
+        <v>2.708333492279053</v>
       </c>
     </row>
     <row r="470">
@@ -7018,7 +7018,7 @@
         <v>3.06794074265265</v>
       </c>
       <c r="D470" t="n">
-        <v>2.837293148040771</v>
+        <v>2.837293386459351</v>
       </c>
     </row>
     <row r="471">
@@ -7032,7 +7032,7 @@
         <v>3.207144234036737</v>
       </c>
       <c r="D471" t="n">
-        <v>2.930147409439087</v>
+        <v>2.930147171020508</v>
       </c>
     </row>
     <row r="472">
@@ -7074,7 +7074,7 @@
         <v>3.519751132487488</v>
       </c>
       <c r="D474" t="n">
-        <v>3.020814180374146</v>
+        <v>3.020814418792725</v>
       </c>
     </row>
     <row r="475">
@@ -7200,7 +7200,7 @@
         <v>3.783859300760902</v>
       </c>
       <c r="D483" t="n">
-        <v>3.971318960189819</v>
+        <v>3.97131872177124</v>
       </c>
     </row>
     <row r="484">
@@ -7256,7 +7256,7 @@
         <v>2.513824652092983</v>
       </c>
       <c r="D487" t="n">
-        <v>2.918272972106934</v>
+        <v>2.918272733688354</v>
       </c>
     </row>
     <row r="488">
@@ -7298,7 +7298,7 @@
         <v>1.964089021482471</v>
       </c>
       <c r="D490" t="n">
-        <v>2.008958101272583</v>
+        <v>2.008958339691162</v>
       </c>
     </row>
     <row r="491">
@@ -7340,7 +7340,7 @@
         <v>1.870208958533806</v>
       </c>
       <c r="D493" t="n">
-        <v>1.532638192176819</v>
+        <v>1.532638311386108</v>
       </c>
     </row>
     <row r="494">
@@ -7354,7 +7354,7 @@
         <v>1.914537908990871</v>
       </c>
       <c r="D494" t="n">
-        <v>1.527129888534546</v>
+        <v>1.527129769325256</v>
       </c>
     </row>
     <row r="495">
@@ -7382,7 +7382,7 @@
         <v>2.082481092537411</v>
       </c>
       <c r="D496" t="n">
-        <v>1.740062952041626</v>
+        <v>1.740063071250916</v>
       </c>
     </row>
     <row r="497">
@@ -7424,7 +7424,7 @@
         <v>2.465381657411681</v>
       </c>
       <c r="D499" t="n">
-        <v>2.352309703826904</v>
+        <v>2.352309465408325</v>
       </c>
     </row>
     <row r="500">
@@ -7494,7 +7494,7 @@
         <v>3.172835368669456</v>
       </c>
       <c r="D504" t="n">
-        <v>2.992333173751831</v>
+        <v>2.992332935333252</v>
       </c>
     </row>
     <row r="505">
@@ -7522,7 +7522,7 @@
         <v>3.35973310030709</v>
       </c>
       <c r="D506" t="n">
-        <v>3.025390863418579</v>
+        <v>3.025391101837158</v>
       </c>
     </row>
     <row r="507">
@@ -7550,7 +7550,7 @@
         <v>3.427459019749628</v>
       </c>
       <c r="D508" t="n">
-        <v>2.976244449615479</v>
+        <v>2.976244688034058</v>
       </c>
     </row>
     <row r="509">
@@ -7592,7 +7592,7 @@
         <v>3.296118427006374</v>
       </c>
       <c r="D511" t="n">
-        <v>2.819898128509521</v>
+        <v>2.819897890090942</v>
       </c>
     </row>
     <row r="512">
@@ -7718,7 +7718,7 @@
         <v>2.030575525062563</v>
       </c>
       <c r="D520" t="n">
-        <v>2.502385854721069</v>
+        <v>2.502386093139648</v>
       </c>
     </row>
     <row r="521">
@@ -7788,7 +7788,7 @@
         <v>1.626428416963745</v>
       </c>
       <c r="D525" t="n">
-        <v>1.439244151115417</v>
+        <v>1.439244389533997</v>
       </c>
     </row>
     <row r="526">
@@ -7858,7 +7858,7 @@
         <v>2.081861083696401</v>
       </c>
       <c r="D530" t="n">
-        <v>2.048293352127075</v>
+        <v>2.048293113708496</v>
       </c>
     </row>
     <row r="531">
@@ -7872,7 +7872,7 @@
         <v>2.22160111584162</v>
       </c>
       <c r="D531" t="n">
-        <v>2.260113477706909</v>
+        <v>2.260113716125488</v>
       </c>
     </row>
     <row r="532">
@@ -7900,7 +7900,7 @@
         <v>2.517297892375212</v>
       </c>
       <c r="D533" t="n">
-        <v>2.618306636810303</v>
+        <v>2.618306875228882</v>
       </c>
     </row>
     <row r="534">
@@ -7928,7 +7928,7 @@
         <v>2.803345660286278</v>
       </c>
       <c r="D535" t="n">
-        <v>2.842131614685059</v>
+        <v>2.842131376266479</v>
       </c>
     </row>
     <row r="536">
@@ -7942,7 +7942,7 @@
         <v>2.929054827099395</v>
       </c>
       <c r="D536" t="n">
-        <v>2.90226149559021</v>
+        <v>2.902261734008789</v>
       </c>
     </row>
     <row r="537">
@@ -7956,7 +7956,7 @@
         <v>3.035196050876009</v>
       </c>
       <c r="D537" t="n">
-        <v>2.932238340377808</v>
+        <v>2.932238101959229</v>
       </c>
     </row>
     <row r="538">
@@ -7984,7 +7984,7 @@
         <v>3.166458987647209</v>
       </c>
       <c r="D539" t="n">
-        <v>2.920732259750366</v>
+        <v>2.920732021331787</v>
       </c>
     </row>
     <row r="540">
@@ -8054,7 +8054,7 @@
         <v>2.973543695944308</v>
       </c>
       <c r="D544" t="n">
-        <v>2.670565605163574</v>
+        <v>2.670565366744995</v>
       </c>
     </row>
     <row r="545">
@@ -8124,7 +8124,7 @@
         <v>2.580225325654655</v>
       </c>
       <c r="D549" t="n">
-        <v>3.203618764877319</v>
+        <v>3.203619003295898</v>
       </c>
     </row>
     <row r="550">
@@ -8180,7 +8180,7 @@
         <v>1.539191721798274</v>
       </c>
       <c r="D553" t="n">
-        <v>1.984755396842957</v>
+        <v>1.984755516052246</v>
       </c>
     </row>
     <row r="554">
@@ -8292,7 +8292,7 @@
         <v>1.644623525253389</v>
       </c>
       <c r="D561" t="n">
-        <v>1.63261604309082</v>
+        <v>1.632615804672241</v>
       </c>
     </row>
     <row r="562">
@@ -8306,7 +8306,7 @@
         <v>1.773547568726903</v>
       </c>
       <c r="D562" t="n">
-        <v>1.844350814819336</v>
+        <v>1.844351053237915</v>
       </c>
     </row>
     <row r="563">
@@ -8334,7 +8334,7 @@
         <v>2.059868790051427</v>
       </c>
       <c r="D564" t="n">
-        <v>2.249762058258057</v>
+        <v>2.249762296676636</v>
       </c>
     </row>
     <row r="565">
@@ -8348,7 +8348,7 @@
         <v>2.208984377405714</v>
       </c>
       <c r="D565" t="n">
-        <v>2.414455652236938</v>
+        <v>2.414455890655518</v>
       </c>
     </row>
     <row r="566">
@@ -8362,7 +8362,7 @@
         <v>2.355828653932692</v>
       </c>
       <c r="D566" t="n">
-        <v>2.544732570648193</v>
+        <v>2.544732093811035</v>
       </c>
     </row>
     <row r="567">
@@ -8376,7 +8376,7 @@
         <v>2.495032145316779</v>
       </c>
       <c r="D567" t="n">
-        <v>2.639426946640015</v>
+        <v>2.639427185058594</v>
       </c>
     </row>
     <row r="568">
@@ -8390,7 +8390,7 @@
         <v>2.620741312129896</v>
       </c>
       <c r="D568" t="n">
-        <v>2.700310707092285</v>
+        <v>2.700310945510864</v>
       </c>
     </row>
     <row r="569">
@@ -8432,7 +8432,7 @@
         <v>2.858145472677711</v>
       </c>
       <c r="D571" t="n">
-        <v>2.720871925354004</v>
+        <v>2.720872163772583</v>
       </c>
     </row>
     <row r="572">
@@ -8446,7 +8446,7 @@
         <v>2.875364963210069</v>
       </c>
       <c r="D572" t="n">
-        <v>2.689381122589111</v>
+        <v>2.689380884170532</v>
       </c>
     </row>
     <row r="573">
@@ -8558,7 +8558,7 @@
         <v>2.5800314892787</v>
       </c>
       <c r="D580" t="n">
-        <v>3.16051983833313</v>
+        <v>3.160519599914551</v>
       </c>
     </row>
     <row r="581">
@@ -8642,7 +8642,7 @@
         <v>1.072083673810251</v>
       </c>
       <c r="D586" t="n">
-        <v>1.416385293006897</v>
+        <v>1.416385173797607</v>
       </c>
     </row>
     <row r="587">
@@ -8684,7 +8684,7 @@
         <v>0.9782036108615864</v>
       </c>
       <c r="D589" t="n">
-        <v>0.9450868368148804</v>
+        <v>0.945087194442749</v>
       </c>
     </row>
     <row r="590">
@@ -8754,7 +8754,7 @@
         <v>1.433636277594243</v>
       </c>
       <c r="D594" t="n">
-        <v>1.555768847465515</v>
+        <v>1.555768728256226</v>
       </c>
     </row>
     <row r="595">
@@ -8782,7 +8782,7 @@
         <v>1.719957498918767</v>
       </c>
       <c r="D596" t="n">
-        <v>1.960629224777222</v>
+        <v>1.960629463195801</v>
       </c>
     </row>
     <row r="597">
@@ -8796,7 +8796,7 @@
         <v>1.869073086273053</v>
       </c>
       <c r="D597" t="n">
-        <v>2.125371217727661</v>
+        <v>2.125370979309082</v>
       </c>
     </row>
     <row r="598">
@@ -8852,7 +8852,7 @@
         <v>2.38697124477385</v>
       </c>
       <c r="D601" t="n">
-        <v>2.443901538848877</v>
+        <v>2.443901300430298</v>
       </c>
     </row>
     <row r="602">
@@ -8992,7 +8992,7 @@
         <v>2.564493977053292</v>
       </c>
       <c r="D611" t="n">
-        <v>3.073788404464722</v>
+        <v>3.073789119720459</v>
       </c>
     </row>
     <row r="612">
@@ -9216,7 +9216,7 @@
         <v>1.24601633370407</v>
       </c>
       <c r="D627" t="n">
-        <v>1.4659583568573</v>
+        <v>1.465958118438721</v>
       </c>
     </row>
     <row r="628">
@@ -9230,7 +9230,7 @@
         <v>1.392597522883376</v>
       </c>
       <c r="D628" t="n">
-        <v>1.658994793891907</v>
+        <v>1.658995032310486</v>
       </c>
     </row>
     <row r="629">
@@ -9258,7 +9258,7 @@
         <v>1.688557386764641</v>
       </c>
       <c r="D630" t="n">
-        <v>1.954065203666687</v>
+        <v>1.954065084457397</v>
       </c>
     </row>
     <row r="631">
@@ -9328,7 +9328,7 @@
         <v>2.190874205509659</v>
       </c>
       <c r="D635" t="n">
-        <v>2.13401460647583</v>
+        <v>2.134014368057251</v>
       </c>
     </row>
     <row r="636">
@@ -9384,7 +9384,7 @@
         <v>2.076753103298764</v>
       </c>
       <c r="D639" t="n">
-        <v>1.948307156562805</v>
+        <v>1.948306918144226</v>
       </c>
     </row>
     <row r="640">
@@ -9398,7 +9398,7 @@
         <v>1.997958913806759</v>
       </c>
       <c r="D640" t="n">
-        <v>1.885342001914978</v>
+        <v>1.885341882705688</v>
       </c>
     </row>
     <row r="641">
@@ -9426,7 +9426,7 @@
         <v>2.52737671042688</v>
       </c>
       <c r="D642" t="n">
-        <v>3.019160270690918</v>
+        <v>3.019160509109497</v>
       </c>
     </row>
     <row r="643">
@@ -9454,7 +9454,7 @@
         <v>1.987000502188741</v>
       </c>
       <c r="D644" t="n">
-        <v>2.627221584320068</v>
+        <v>2.627221822738647</v>
       </c>
     </row>
     <row r="645">
@@ -9468,7 +9468,7 @@
         <v>1.647283047432036</v>
       </c>
       <c r="D645" t="n">
-        <v>2.37852931022644</v>
+        <v>2.37852954864502</v>
       </c>
     </row>
     <row r="646">
@@ -9566,7 +9566,7 @@
         <v>0.3745363146262179</v>
       </c>
       <c r="D652" t="n">
-        <v>0.493818998336792</v>
+        <v>0.4938192367553711</v>
       </c>
     </row>
     <row r="653">
@@ -9622,7 +9622,7 @@
         <v>0.5974447577752313</v>
       </c>
       <c r="D656" t="n">
-        <v>0.6199995279312134</v>
+        <v>0.6199997663497925</v>
       </c>
     </row>
     <row r="657">
@@ -9664,7 +9664,7 @@
         <v>0.980345322649502</v>
       </c>
       <c r="D659" t="n">
-        <v>1.22684371471405</v>
+        <v>1.226843476295471</v>
       </c>
     </row>
     <row r="660">
@@ -9678,7 +9678,7 @@
         <v>1.126926511828807</v>
       </c>
       <c r="D660" t="n">
-        <v>1.419167518615723</v>
+        <v>1.419167041778564</v>
       </c>
     </row>
     <row r="661">
@@ -9692,7 +9692,7 @@
         <v>1.276042099183094</v>
       </c>
       <c r="D661" t="n">
-        <v>1.583203554153442</v>
+        <v>1.583203077316284</v>
       </c>
     </row>
     <row r="662">
@@ -9720,7 +9720,7 @@
         <v>1.56208986709416</v>
       </c>
       <c r="D663" t="n">
-        <v>1.808947563171387</v>
+        <v>1.808947801589966</v>
       </c>
     </row>
     <row r="664">
@@ -9734,7 +9734,7 @@
         <v>1.687799033907277</v>
       </c>
       <c r="D664" t="n">
-        <v>1.870790600776672</v>
+        <v>1.870790123939514</v>
       </c>
     </row>
     <row r="665">
@@ -9748,7 +9748,7 @@
         <v>1.793940257683891</v>
       </c>
       <c r="D665" t="n">
-        <v>1.902521848678589</v>
+        <v>1.902522087097168</v>
       </c>
     </row>
     <row r="666">
@@ -9776,7 +9776,7 @@
         <v>1.925203194455091</v>
       </c>
       <c r="D667" t="n">
-        <v>1.893747687339783</v>
+        <v>1.893747925758362</v>
       </c>
     </row>
     <row r="668">
@@ -9832,7 +9832,7 @@
         <v>1.811082092244195</v>
       </c>
       <c r="D671" t="n">
-        <v>1.706782341003418</v>
+        <v>1.706782698631287</v>
       </c>
     </row>
     <row r="672">
@@ -9888,7 +9888,7 @@
         <v>2.13919895140194</v>
       </c>
       <c r="D675" t="n">
-        <v>2.700050115585327</v>
+        <v>2.700050354003906</v>
       </c>
     </row>
     <row r="676">
@@ -9902,7 +9902,7 @@
         <v>1.827376487591957</v>
       </c>
       <c r="D676" t="n">
-        <v>2.486924648284912</v>
+        <v>2.486924886703491</v>
       </c>
     </row>
     <row r="677">
@@ -9944,7 +9944,7 @@
         <v>0.8691643027340208</v>
       </c>
       <c r="D679" t="n">
-        <v>1.645623087882996</v>
+        <v>1.645622968673706</v>
       </c>
     </row>
     <row r="680">
@@ -10000,7 +10000,7 @@
         <v>0.2441052610746066</v>
       </c>
       <c r="D683" t="n">
-        <v>0.5117906332015991</v>
+        <v>0.5117905139923096</v>
       </c>
     </row>
     <row r="684">
@@ -10056,7 +10056,7 @@
         <v>0.3422921305877529</v>
       </c>
       <c r="D687" t="n">
-        <v>0.3371944427490234</v>
+        <v>0.3371948003768921</v>
       </c>
     </row>
     <row r="688">
@@ -10112,7 +10112,7 @@
         <v>0.8207213080527183</v>
       </c>
       <c r="D691" t="n">
-        <v>1.081359386444092</v>
+        <v>1.081359267234802</v>
       </c>
     </row>
     <row r="692">
@@ -10126,7 +10126,7 @@
         <v>0.9673024972320239</v>
       </c>
       <c r="D692" t="n">
-        <v>1.272935271263123</v>
+        <v>1.272935032844543</v>
       </c>
     </row>
     <row r="693">
@@ -10182,7 +10182,7 @@
         <v>1.528175019310493</v>
       </c>
       <c r="D696" t="n">
-        <v>1.723898887634277</v>
+        <v>1.723899006843567</v>
       </c>
     </row>
     <row r="697">
@@ -10266,7 +10266,7 @@
         <v>1.720119163893457</v>
       </c>
       <c r="D702" t="n">
-        <v>1.618321061134338</v>
+        <v>1.61832070350647</v>
       </c>
     </row>
     <row r="703">
@@ -10294,7 +10294,7 @@
         <v>1.572663888155407</v>
       </c>
       <c r="D704" t="n">
-        <v>1.494487285614014</v>
+        <v>1.494487524032593</v>
       </c>
     </row>
     <row r="705">
@@ -10308,7 +10308,7 @@
         <v>1.49952178619826</v>
       </c>
       <c r="D705" t="n">
-        <v>1.427652478218079</v>
+        <v>1.427652597427368</v>
       </c>
     </row>
     <row r="706">
@@ -10364,7 +10364,7 @@
         <v>1.461905255417934</v>
       </c>
       <c r="D709" t="n">
-        <v>2.179255247116089</v>
+        <v>2.17925500869751</v>
       </c>
     </row>
     <row r="710">
@@ -10462,7 +10462,7 @@
         <v>0.1891585226121162</v>
       </c>
       <c r="D716" t="n">
-        <v>0.2921336889266968</v>
+        <v>0.2921340465545654</v>
       </c>
     </row>
     <row r="717">
@@ -10560,7 +10560,7 @@
         <v>0.7949675306354007</v>
       </c>
       <c r="D723" t="n">
-        <v>1.019264936447144</v>
+        <v>1.019264459609985</v>
       </c>
     </row>
     <row r="724">
@@ -10574,7 +10574,7 @@
         <v>0.9415487198147059</v>
       </c>
       <c r="D724" t="n">
-        <v>1.210166811943054</v>
+        <v>1.210167288780212</v>
       </c>
     </row>
     <row r="725">
@@ -10616,7 +10616,7 @@
         <v>1.376712075080059</v>
       </c>
       <c r="D727" t="n">
-        <v>1.598726630210876</v>
+        <v>1.598726868629456</v>
       </c>
     </row>
     <row r="728">
@@ -10658,7 +10658,7 @@
         <v>1.689318973530809</v>
       </c>
       <c r="D730" t="n">
-        <v>1.699055671691895</v>
+        <v>1.699055433273315</v>
       </c>
     </row>
     <row r="731">
@@ -10700,7 +10700,7 @@
         <v>1.740737894775215</v>
       </c>
       <c r="D733" t="n">
-        <v>1.608503341674805</v>
+        <v>1.608503580093384</v>
       </c>
     </row>
     <row r="734">
@@ -10728,7 +10728,7 @@
         <v>1.625704300230094</v>
       </c>
       <c r="D735" t="n">
-        <v>1.494838953018188</v>
+        <v>1.494839191436768</v>
       </c>
     </row>
     <row r="736">
@@ -10784,7 +10784,7 @@
         <v>2.222176073311628</v>
       </c>
       <c r="D739" t="n">
-        <v>2.63952374458313</v>
+        <v>2.639523506164551</v>
       </c>
     </row>
     <row r="740">
@@ -10798,7 +10798,7 @@
         <v>1.910353609501645</v>
       </c>
       <c r="D740" t="n">
-        <v>2.425894260406494</v>
+        <v>2.425894021987915</v>
       </c>
     </row>
     <row r="741">
@@ -10826,7 +10826,7 @@
         <v>1.24274650183506</v>
       </c>
       <c r="D742" t="n">
-        <v>1.892433762550354</v>
+        <v>1.892433524131775</v>
       </c>
     </row>
     <row r="743">
@@ -10882,7 +10882,7 @@
         <v>0.4024057940331962</v>
       </c>
       <c r="D746" t="n">
-        <v>0.6752867698669434</v>
+        <v>0.6752870082855225</v>
       </c>
     </row>
     <row r="747">
@@ -10910,7 +10910,7 @@
         <v>0.2978894219391224</v>
       </c>
       <c r="D748" t="n">
-        <v>0.28899085521698</v>
+        <v>0.2889904975891113</v>
       </c>
     </row>
     <row r="749">
@@ -10924,7 +10924,7 @@
         <v>0.3085257310845315</v>
       </c>
       <c r="D749" t="n">
-        <v>0.205152153968811</v>
+        <v>0.2051517963409424</v>
       </c>
     </row>
     <row r="750">
@@ -10966,7 +10966,7 @@
         <v>0.520797865088136</v>
       </c>
       <c r="D752" t="n">
-        <v>0.4141515493392944</v>
+        <v>0.4141514301300049</v>
       </c>
     </row>
     <row r="753">
@@ -11008,7 +11008,7 @@
         <v>0.9036984299624067</v>
       </c>
       <c r="D755" t="n">
-        <v>1.014167547225952</v>
+        <v>1.014167189598083</v>
       </c>
     </row>
     <row r="756">
@@ -11036,7 +11036,7 @@
         <v>1.199395206495999</v>
       </c>
       <c r="D757" t="n">
-        <v>1.367327213287354</v>
+        <v>1.367326974868774</v>
       </c>
     </row>
     <row r="758">
@@ -11050,7 +11050,7 @@
         <v>1.346239483022977</v>
       </c>
       <c r="D758" t="n">
-        <v>1.497312784194946</v>
+        <v>1.497312426567078</v>
       </c>
     </row>
     <row r="759">
@@ -11162,7 +11162,7 @@
         <v>1.803096285803145</v>
       </c>
       <c r="D766" t="n">
-        <v>1.549863338470459</v>
+        <v>1.549863576889038</v>
       </c>
     </row>
     <row r="767">
@@ -11246,7 +11246,7 @@
         <v>2.121499841206438</v>
       </c>
       <c r="D772" t="n">
-        <v>2.454502582550049</v>
+        <v>2.454502820968628</v>
       </c>
     </row>
     <row r="773">
@@ -11260,7 +11260,7 @@
         <v>1.781782386449733</v>
       </c>
       <c r="D773" t="n">
-        <v>2.20465874671936</v>
+        <v>2.204658508300781</v>
       </c>
     </row>
     <row r="774">
@@ -11288,7 +11288,7 @@
         <v>1.163287656348502</v>
       </c>
       <c r="D775" t="n">
-        <v>1.611132144927979</v>
+        <v>1.611132025718689</v>
       </c>
     </row>
     <row r="776">
@@ -11344,7 +11344,7 @@
         <v>0.538228614689088</v>
       </c>
       <c r="D779" t="n">
-        <v>0.4776425361633301</v>
+        <v>0.4776424169540405</v>
       </c>
     </row>
     <row r="780">
@@ -11372,7 +11372,7 @@
         <v>0.5196719627893247</v>
       </c>
       <c r="D781" t="n">
-        <v>0.234473705291748</v>
+        <v>0.2344733476638794</v>
       </c>
     </row>
     <row r="782">
@@ -11456,7 +11456,7 @@
         <v>1.114844661667199</v>
       </c>
       <c r="D787" t="n">
-        <v>1.041825294494629</v>
+        <v>1.04182505607605</v>
       </c>
     </row>
     <row r="788">
@@ -11498,7 +11498,7 @@
         <v>1.55738571472777</v>
       </c>
       <c r="D790" t="n">
-        <v>1.524303555488586</v>
+        <v>1.524303317070007</v>
       </c>
     </row>
     <row r="791">
@@ -11512,7 +11512,7 @@
         <v>1.696589206111857</v>
       </c>
       <c r="D791" t="n">
-        <v>1.620140433311462</v>
+        <v>1.620140194892883</v>
       </c>
     </row>
     <row r="792">
@@ -11568,7 +11568,7 @@
         <v>2.059702533472788</v>
       </c>
       <c r="D795" t="n">
-        <v>1.70797324180603</v>
+        <v>1.707973599433899</v>
       </c>
     </row>
     <row r="796">
@@ -11582,7 +11582,7 @@
         <v>2.076922024005146</v>
       </c>
       <c r="D796" t="n">
-        <v>1.676639199256897</v>
+        <v>1.676638960838318</v>
       </c>
     </row>
     <row r="797">
@@ -11610,7 +11610,7 @@
         <v>2.014242517507938</v>
       </c>
       <c r="D798" t="n">
-        <v>1.578543305397034</v>
+        <v>1.578543186187744</v>
       </c>
     </row>
     <row r="799">
@@ -11638,7 +11638,7 @@
         <v>1.866787241769888</v>
       </c>
       <c r="D800" t="n">
-        <v>1.452517867088318</v>
+        <v>1.452517747879028</v>
       </c>
     </row>
     <row r="801">
@@ -11680,7 +11680,7 @@
         <v>2.685768998120597</v>
       </c>
       <c r="D803" t="n">
-        <v>2.711975574493408</v>
+        <v>2.711975812911987</v>
       </c>
     </row>
     <row r="804">
@@ -11736,7 +11736,7 @@
         <v>1.415734349452678</v>
       </c>
       <c r="D807" t="n">
-        <v>1.654573917388916</v>
+        <v>1.654573798179626</v>
       </c>
     </row>
     <row r="808">
@@ -11848,7 +11848,7 @@
         <v>0.8888621773064098</v>
       </c>
       <c r="D815" t="n">
-        <v>0.3500385284423828</v>
+        <v>0.3500388860702515</v>
       </c>
     </row>
     <row r="816">
@@ -11890,7 +11890,7 @@
         <v>1.227551322626157</v>
       </c>
       <c r="D818" t="n">
-        <v>0.879525899887085</v>
+        <v>0.8795261383056641</v>
       </c>
     </row>
     <row r="819">
@@ -11932,7 +11932,7 @@
         <v>1.662988131304967</v>
       </c>
       <c r="D821" t="n">
-        <v>1.437366008758545</v>
+        <v>1.437366366386414</v>
       </c>
     </row>
     <row r="822">
@@ -11974,7 +11974,7 @@
         <v>2.07474506602915</v>
       </c>
       <c r="D824" t="n">
-        <v>1.726911664009094</v>
+        <v>1.726911425590515</v>
       </c>
     </row>
     <row r="825">
@@ -11988,7 +11988,7 @@
         <v>2.180886289805765</v>
       </c>
       <c r="D825" t="n">
-        <v>1.760098934173584</v>
+        <v>1.760098695755005</v>
       </c>
     </row>
     <row r="826">
@@ -12002,7 +12002,7 @@
         <v>2.261642797666784</v>
       </c>
       <c r="D826" t="n">
-        <v>1.767369747161865</v>
+        <v>1.767369627952576</v>
       </c>
     </row>
     <row r="827">
@@ -12016,7 +12016,7 @@
         <v>2.312149226576964</v>
       </c>
       <c r="D827" t="n">
-        <v>1.753247857093811</v>
+        <v>1.753247976303101</v>
       </c>
     </row>
     <row r="828">
@@ -12030,7 +12030,7 @@
         <v>2.329368717109323</v>
       </c>
       <c r="D828" t="n">
-        <v>1.722129702568054</v>
+        <v>1.722129940986633</v>
       </c>
     </row>
     <row r="829">
@@ -12072,7 +12072,7 @@
         <v>2.198028124366069</v>
       </c>
       <c r="D831" t="n">
-        <v>1.563260793685913</v>
+        <v>1.563261270523071</v>
       </c>
     </row>
     <row r="832">
@@ -12100,7 +12100,7 @@
         <v>2.046091832916917</v>
       </c>
       <c r="D833" t="n">
-        <v>1.429031133651733</v>
+        <v>1.429030895233154</v>
       </c>
     </row>
     <row r="834">
@@ -12114,7 +12114,7 @@
         <v>3.132470480119312</v>
       </c>
       <c r="D834" t="n">
-        <v>2.940931081771851</v>
+        <v>2.94093132019043</v>
       </c>
     </row>
     <row r="835">
@@ -12128,7 +12128,7 @@
         <v>2.903916735691156</v>
       </c>
       <c r="D835" t="n">
-        <v>2.760949850082397</v>
+        <v>2.760949611663818</v>
       </c>
     </row>
     <row r="836">
@@ -12170,7 +12170,7 @@
         <v>1.924487164214588</v>
       </c>
       <c r="D838" t="n">
-        <v>2.013084650039673</v>
+        <v>2.013084888458252</v>
       </c>
     </row>
     <row r="839">
@@ -12184,7 +12184,7 @@
         <v>1.633882087023237</v>
       </c>
       <c r="D839" t="n">
-        <v>1.70344614982605</v>
+        <v>1.703446388244629</v>
       </c>
     </row>
     <row r="840">
@@ -12198,7 +12198,7 @@
         <v>1.394413501562878</v>
       </c>
       <c r="D840" t="n">
-        <v>1.383657097816467</v>
+        <v>1.383656978607178</v>
       </c>
     </row>
     <row r="841">
@@ -12212,7 +12212,7 @@
         <v>1.211343213268087</v>
       </c>
       <c r="D841" t="n">
-        <v>1.074261069297791</v>
+        <v>1.07426118850708</v>
       </c>
     </row>
     <row r="842">
@@ -12226,7 +12226,7 @@
         <v>1.084146456412724</v>
       </c>
       <c r="D842" t="n">
-        <v>0.7971590757369995</v>
+        <v>0.7971587181091309</v>
       </c>
     </row>
     <row r="843">
@@ -12352,7 +12352,7 @@
         <v>1.585439092341935</v>
       </c>
       <c r="D851" t="n">
-        <v>1.135276198387146</v>
+        <v>1.135276436805725</v>
       </c>
     </row>
     <row r="852">
@@ -12380,7 +12380,7 @@
         <v>1.881135868875526</v>
       </c>
       <c r="D853" t="n">
-        <v>1.486592173576355</v>
+        <v>1.486592531204224</v>
       </c>
     </row>
     <row r="854">
@@ -12450,7 +12450,7 @@
         <v>2.479790535237343</v>
       </c>
       <c r="D858" t="n">
-        <v>1.818728923797607</v>
+        <v>1.818728685379028</v>
       </c>
     </row>
     <row r="859">
@@ -12478,7 +12478,7 @@
         <v>2.547516454679882</v>
       </c>
       <c r="D860" t="n">
-        <v>1.774173617362976</v>
+        <v>1.774173974990845</v>
       </c>
     </row>
     <row r="861">
@@ -12506,7 +12506,7 @@
         <v>2.484836948182673</v>
       </c>
       <c r="D862" t="n">
-        <v>1.676311254501343</v>
+        <v>1.676310896873474</v>
       </c>
     </row>
     <row r="863">
@@ -12520,7 +12520,7 @@
         <v>2.416175861936628</v>
       </c>
       <c r="D863" t="n">
-        <v>1.615394473075867</v>
+        <v>1.615394592285156</v>
       </c>
     </row>
     <row r="864">
@@ -12534,7 +12534,7 @@
         <v>2.337381672444623</v>
       </c>
       <c r="D864" t="n">
-        <v>1.549611449241638</v>
+        <v>1.549611687660217</v>
       </c>
     </row>
     <row r="865">
@@ -12548,7 +12548,7 @@
         <v>2.264239570487476</v>
       </c>
       <c r="D865" t="n">
-        <v>1.480696082115173</v>
+        <v>1.480696320533752</v>
       </c>
     </row>
     <row r="866">
@@ -12562,7 +12562,7 @@
         <v>3.249509916093773</v>
       </c>
       <c r="D866" t="n">
-        <v>2.989769697189331</v>
+        <v>2.989769458770752</v>
       </c>
     </row>
     <row r="867">
@@ -12576,7 +12576,7 @@
         <v>3.020956171665618</v>
       </c>
       <c r="D867" t="n">
-        <v>2.809844970703125</v>
+        <v>2.809844732284546</v>
       </c>
     </row>
     <row r="868">
@@ -12590,7 +12590,7 @@
         <v>2.709133707855635</v>
       </c>
       <c r="D868" t="n">
-        <v>2.596028804779053</v>
+        <v>2.596029043197632</v>
       </c>
     </row>
     <row r="869">
@@ -12632,7 +12632,7 @@
         <v>1.750921522997698</v>
       </c>
       <c r="D871" t="n">
-        <v>1.752376675605774</v>
+        <v>1.752376556396484</v>
       </c>
     </row>
     <row r="872">
@@ -12646,7 +12646,7 @@
         <v>1.511452937537339</v>
       </c>
       <c r="D872" t="n">
-        <v>1.43272852897644</v>
+        <v>1.432728290557861</v>
       </c>
     </row>
     <row r="873">
@@ -12660,7 +12660,7 @@
         <v>1.328382649242548</v>
       </c>
       <c r="D873" t="n">
-        <v>1.123589634895325</v>
+        <v>1.123589396476746</v>
       </c>
     </row>
     <row r="874">
@@ -12674,7 +12674,7 @@
         <v>1.201185892387186</v>
       </c>
       <c r="D874" t="n">
-        <v>0.8468538522720337</v>
+        <v>0.8468533754348755</v>
       </c>
     </row>
     <row r="875">
@@ -12716,7 +12716,7 @@
         <v>1.107305829438521</v>
       </c>
       <c r="D877" t="n">
-        <v>0.3813871145248413</v>
+        <v>0.3813869953155518</v>
       </c>
     </row>
     <row r="878">
@@ -12772,7 +12772,7 @@
         <v>1.433814452697663</v>
       </c>
       <c r="D881" t="n">
-        <v>0.7756103277206421</v>
+        <v>0.7756099700927734</v>
       </c>
     </row>
     <row r="882">
@@ -12814,7 +12814,7 @@
         <v>1.849059717495701</v>
       </c>
       <c r="D884" t="n">
-        <v>1.374160528182983</v>
+        <v>1.374160408973694</v>
       </c>
     </row>
     <row r="885">
@@ -12842,7 +12842,7 @@
         <v>2.145019581376967</v>
       </c>
       <c r="D886" t="n">
-        <v>1.666969537734985</v>
+        <v>1.666969299316406</v>
       </c>
     </row>
     <row r="887">
@@ -12870,7 +12870,7 @@
         <v>2.40993223957417</v>
       </c>
       <c r="D888" t="n">
-        <v>1.828276395797729</v>
+        <v>1.828276753425598</v>
       </c>
     </row>
     <row r="889">
@@ -12898,7 +12898,7 @@
         <v>2.596829971211804</v>
       </c>
       <c r="D890" t="n">
-        <v>1.870933651924133</v>
+        <v>1.870933771133423</v>
       </c>
     </row>
     <row r="891">
@@ -12954,7 +12954,7 @@
         <v>2.601876384157134</v>
       </c>
       <c r="D894" t="n">
-        <v>1.729599595069885</v>
+        <v>1.729599952697754</v>
       </c>
     </row>
     <row r="895">
@@ -12968,7 +12968,7 @@
         <v>2.533215297911089</v>
       </c>
       <c r="D895" t="n">
-        <v>1.668644189834595</v>
+        <v>1.668644547462463</v>
       </c>
     </row>
     <row r="896">
@@ -12996,7 +12996,7 @@
         <v>2.381279006461937</v>
       </c>
       <c r="D897" t="n">
-        <v>1.533568859100342</v>
+        <v>1.533568978309631</v>
       </c>
     </row>
     <row r="898">
@@ -13038,7 +13038,7 @@
         <v>2.69197271269942</v>
       </c>
       <c r="D900" t="n">
-        <v>2.642205715179443</v>
+        <v>2.642205953598022</v>
       </c>
     </row>
     <row r="901">
@@ -13066,7 +13066,7 @@
         <v>2.024365605032834</v>
       </c>
       <c r="D902" t="n">
-        <v>2.108177661895752</v>
+        <v>2.108177900314331</v>
       </c>
     </row>
     <row r="903">
@@ -13080,7 +13080,7 @@
         <v>1.733760527841484</v>
       </c>
       <c r="D903" t="n">
-        <v>1.798660516738892</v>
+        <v>1.798660278320312</v>
       </c>
     </row>
     <row r="904">
@@ -13094,7 +13094,7 @@
         <v>1.494291942381125</v>
       </c>
       <c r="D904" t="n">
-        <v>1.479186177253723</v>
+        <v>1.479186058044434</v>
       </c>
     </row>
     <row r="905">
@@ -13164,7 +13164,7 @@
         <v>1.090144834282307</v>
       </c>
       <c r="D909" t="n">
-        <v>0.4300887584686279</v>
+        <v>0.4300885200500488</v>
       </c>
     </row>
     <row r="910">
@@ -13178,7 +13178,7 @@
         <v>1.134473784739371</v>
       </c>
       <c r="D910" t="n">
-        <v>0.4281467199325562</v>
+        <v>0.4281466007232666</v>
       </c>
     </row>
     <row r="911">
@@ -13276,7 +13276,7 @@
         <v>1.981014309693773</v>
       </c>
       <c r="D917" t="n">
-        <v>1.584031939506531</v>
+        <v>1.584031701087952</v>
       </c>
     </row>
     <row r="918">
@@ -13332,7 +13332,7 @@
         <v>2.49891246819457</v>
       </c>
       <c r="D921" t="n">
-        <v>1.912219524383545</v>
+        <v>1.912219762802124</v>
       </c>
     </row>
     <row r="922">
@@ -13346,7 +13346,7 @@
         <v>2.57966897605559</v>
       </c>
       <c r="D922" t="n">
-        <v>1.921149492263794</v>
+        <v>1.921149849891663</v>
       </c>
     </row>
     <row r="923">
@@ -13360,7 +13360,7 @@
         <v>2.63017540496577</v>
       </c>
       <c r="D923" t="n">
-        <v>1.908401727676392</v>
+        <v>1.90840220451355</v>
       </c>
     </row>
     <row r="924">
@@ -13374,7 +13374,7 @@
         <v>2.647394895498128</v>
       </c>
       <c r="D924" t="n">
-        <v>1.878291726112366</v>
+        <v>1.878291845321655</v>
       </c>
     </row>
     <row r="925">
@@ -13388,7 +13388,7 @@
         <v>2.631087897299996</v>
       </c>
       <c r="D925" t="n">
-        <v>1.834737181663513</v>
+        <v>1.834736943244934</v>
       </c>
     </row>
     <row r="926">
@@ -13402,7 +13402,7 @@
         <v>2.58471538900092</v>
       </c>
       <c r="D926" t="n">
-        <v>1.781097650527954</v>
+        <v>1.781098008155823</v>
       </c>
     </row>
     <row r="927">
@@ -13486,7 +13486,7 @@
         <v>2.557309635624551</v>
       </c>
       <c r="D932" t="n">
-        <v>2.684480667114258</v>
+        <v>2.684480428695679</v>
       </c>
     </row>
     <row r="933">
@@ -13500,7 +13500,7 @@
         <v>2.217592180867846</v>
       </c>
       <c r="D933" t="n">
-        <v>2.434523582458496</v>
+        <v>2.434523344039917</v>
       </c>
     </row>
     <row r="934">
@@ -13542,7 +13542,7 @@
         <v>1.359628865306256</v>
       </c>
       <c r="D936" t="n">
-        <v>1.521835923194885</v>
+        <v>1.521835803985596</v>
       </c>
     </row>
     <row r="937">
@@ -13570,7 +13570,7 @@
         <v>1.049361820156102</v>
       </c>
       <c r="D938" t="n">
-        <v>0.9374212026596069</v>
+        <v>0.9374213218688965</v>
       </c>
     </row>
     <row r="939">
@@ -13584,7 +13584,7 @@
         <v>0.9740384091072007</v>
       </c>
       <c r="D939" t="n">
-        <v>0.7135220766067505</v>
+        <v>0.7135219573974609</v>
       </c>
     </row>
     <row r="940">
@@ -13612,7 +13612,7 @@
         <v>0.9554817572074374</v>
       </c>
       <c r="D941" t="n">
-        <v>0.4751540422439575</v>
+        <v>0.4751538038253784</v>
       </c>
     </row>
     <row r="942">
@@ -13626,7 +13626,7 @@
         <v>0.9998107076645018</v>
       </c>
       <c r="D942" t="n">
-        <v>0.4736925363540649</v>
+        <v>0.4736928939819336</v>
       </c>
     </row>
     <row r="943">
@@ -13668,7 +13668,7 @@
         <v>1.28199038046658</v>
       </c>
       <c r="D945" t="n">
-        <v>0.8702280521392822</v>
+        <v>0.8702278137207031</v>
       </c>
     </row>
     <row r="946">
@@ -13682,7 +13682,7 @@
         <v>1.410914423940094</v>
       </c>
       <c r="D946" t="n">
-        <v>1.074257612228394</v>
+        <v>1.074257493019104</v>
       </c>
     </row>
     <row r="947">
@@ -13696,7 +13696,7 @@
         <v>1.550654456085312</v>
       </c>
       <c r="D947" t="n">
-        <v>1.278077363967896</v>
+        <v>1.278077244758606</v>
       </c>
     </row>
     <row r="948">
@@ -13710,7 +13710,7 @@
         <v>1.697235645264618</v>
       </c>
       <c r="D948" t="n">
-        <v>1.466009855270386</v>
+        <v>1.466009974479675</v>
       </c>
     </row>
     <row r="949">
@@ -13724,7 +13724,7 @@
         <v>1.846351232618904</v>
       </c>
       <c r="D949" t="n">
-        <v>1.628183841705322</v>
+        <v>1.628184080123901</v>
       </c>
     </row>
     <row r="950">
@@ -13738,7 +13738,7 @@
         <v>1.993195509145883</v>
       </c>
       <c r="D950" t="n">
-        <v>1.759265065193176</v>
+        <v>1.759264826774597</v>
       </c>
     </row>
     <row r="951">
@@ -13794,7 +13794,7 @@
         <v>2.445005898980721</v>
       </c>
       <c r="D954" t="n">
-        <v>1.968095421791077</v>
+        <v>1.968095064163208</v>
       </c>
     </row>
     <row r="955">
@@ -13808,7 +13808,7 @@
         <v>2.495512327890901</v>
       </c>
       <c r="D955" t="n">
-        <v>1.955905675888062</v>
+        <v>1.955905795097351</v>
       </c>
     </row>
     <row r="956">
@@ -13836,7 +13836,7 @@
         <v>2.496424820225128</v>
       </c>
       <c r="D957" t="n">
-        <v>1.882979154586792</v>
+        <v>1.882979512214661</v>
       </c>
     </row>
     <row r="958">
@@ -13850,7 +13850,7 @@
         <v>2.450052311926051</v>
       </c>
       <c r="D958" t="n">
-        <v>1.829509854316711</v>
+        <v>1.829510092735291</v>
       </c>
     </row>
     <row r="959">
@@ -13878,7 +13878,7 @@
         <v>2.302597036188001</v>
       </c>
       <c r="D960" t="n">
-        <v>1.70251727104187</v>
+        <v>1.702516913414001</v>
       </c>
     </row>
     <row r="961">
@@ -13892,7 +13892,7 @@
         <v>2.229454934230854</v>
       </c>
       <c r="D961" t="n">
-        <v>1.633018612861633</v>
+        <v>1.633018255233765</v>
       </c>
     </row>
     <row r="962">
@@ -13920,7 +13920,7 @@
         <v>2.68083752165862</v>
       </c>
       <c r="D963" t="n">
-        <v>2.936160326004028</v>
+        <v>2.936160087585449</v>
       </c>
     </row>
     <row r="964">
@@ -13934,7 +13934,7 @@
         <v>2.369015057848637</v>
       </c>
       <c r="D964" t="n">
-        <v>2.722502470016479</v>
+        <v>2.722502708435059</v>
       </c>
     </row>
     <row r="965">
@@ -14018,7 +14018,7 @@
         <v>0.8610672423801877</v>
       </c>
       <c r="D970" t="n">
-        <v>0.9767146110534668</v>
+        <v>0.9767147302627563</v>
       </c>
     </row>
     <row r="971">
@@ -14032,7 +14032,7 @@
         <v>0.7857438313312866</v>
       </c>
       <c r="D971" t="n">
-        <v>0.7533696889877319</v>
+        <v>0.7533692121505737</v>
       </c>
     </row>
     <row r="972">
@@ -14088,7 +14088,7 @@
         <v>0.8839307008444326</v>
       </c>
       <c r="D975" t="n">
-        <v>0.590266227722168</v>
+        <v>0.5902665853500366</v>
       </c>
     </row>
     <row r="976">
@@ -14130,7 +14130,7 @@
         <v>1.22261984616418</v>
       </c>
       <c r="D978" t="n">
-        <v>1.115357041358948</v>
+        <v>1.115357160568237</v>
       </c>
     </row>
     <row r="979">
@@ -14144,7 +14144,7 @@
         <v>1.362359878309398</v>
       </c>
       <c r="D979" t="n">
-        <v>1.318670034408569</v>
+        <v>1.31866979598999</v>
       </c>
     </row>
     <row r="980">
@@ -14172,7 +14172,7 @@
         <v>1.65805665484299</v>
       </c>
       <c r="D981" t="n">
-        <v>1.668453335762024</v>
+        <v>1.668453097343445</v>
       </c>
     </row>
     <row r="982">
@@ -14186,7 +14186,7 @@
         <v>1.804900931369969</v>
       </c>
       <c r="D982" t="n">
-        <v>1.799837231636047</v>
+        <v>1.799837470054626</v>
       </c>
     </row>
     <row r="983">
@@ -14228,7 +14228,7 @@
         <v>2.175954813343787</v>
       </c>
       <c r="D985" t="n">
-        <v>2.001056671142578</v>
+        <v>2.001056909561157</v>
       </c>
     </row>
     <row r="986">
@@ -14256,7 +14256,7 @@
         <v>2.307217750114987</v>
       </c>
       <c r="D987" t="n">
-        <v>1.999748706817627</v>
+        <v>1.999748945236206</v>
       </c>
     </row>
     <row r="988">
@@ -14284,7 +14284,7 @@
         <v>2.308130242449213</v>
       </c>
       <c r="D989" t="n">
-        <v>1.927649140357971</v>
+        <v>1.927648901939392</v>
       </c>
     </row>
     <row r="990">
@@ -14326,7 +14326,7 @@
         <v>2.114302458412086</v>
       </c>
       <c r="D992" t="n">
-        <v>1.747462034225464</v>
+        <v>1.747461795806885</v>
       </c>
     </row>
     <row r="993">
@@ -14424,7 +14424,7 @@
         <v>1.255202468288634</v>
       </c>
       <c r="D999" t="n">
-        <v>1.913486361503601</v>
+        <v>1.913486242294312</v>
       </c>
     </row>
     <row r="1000">
@@ -14480,7 +14480,7 @@
         <v>0.6301434266292203</v>
       </c>
       <c r="D1003" t="n">
-        <v>0.7891857624053955</v>
+        <v>0.7891855239868164</v>
       </c>
     </row>
     <row r="1004">
@@ -14522,7 +14522,7 @@
         <v>0.6559157251865215</v>
       </c>
       <c r="D1006" t="n">
-        <v>0.5528466701507568</v>
+        <v>0.5528464317321777</v>
       </c>
     </row>
     <row r="1007">
@@ -14578,7 +14578,7 @@
         <v>1.067019441462113</v>
       </c>
       <c r="D1010" t="n">
-        <v>1.152559757232666</v>
+        <v>1.152559876441956</v>
       </c>
     </row>
     <row r="1011">
@@ -14676,7 +14676,7 @@
         <v>2.020354408641721</v>
       </c>
       <c r="D1017" t="n">
-        <v>2.039860486984253</v>
+        <v>2.039860725402832</v>
       </c>
     </row>
     <row r="1018">
@@ -14690,7 +14690,7 @@
         <v>2.101110916502741</v>
       </c>
       <c r="D1018" t="n">
-        <v>2.050875186920166</v>
+        <v>2.050875663757324</v>
       </c>
     </row>
     <row r="1019">
@@ -14704,7 +14704,7 @@
         <v>2.15161734541292</v>
       </c>
       <c r="D1019" t="n">
-        <v>2.03993558883667</v>
+        <v>2.039935350418091</v>
       </c>
     </row>
     <row r="1020">
@@ -14732,7 +14732,7 @@
         <v>2.152529837747147</v>
       </c>
       <c r="D1021" t="n">
-        <v>1.968746423721313</v>
+        <v>1.968746066093445</v>
       </c>
     </row>
     <row r="1022">
